--- a/similarities/split_global/harmonic_similarity_timestamps_49.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_49.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_39</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+          <t>('0:02:45.140000', '0:02:48.700000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:07.760000', '0:01:24.780000')]</t>
+          <t>('0:00:04.200000', '0:00:19.320000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=165.14</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-39#t=4.2</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_100</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['G:7', 'C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
+          <t>['F:7', 'A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:34.060000', '0:01:53.500000')]</t>
+          <t>('0:01:24.160000', '0:01:32.420000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:32.380000', '0:00:46.680000')]</t>
+          <t>('0:01:46.960000', '0:01:59.340000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=94.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=84.16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-100#t=32.38']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=106.96</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D/7', 'A/3', 'B:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:11.062412', '0:00:12.567886')]</t>
+          <t>('0:00:15.880000', '0:00:17.370000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:20.420000', '0:00:25.900000')]</t>
+          <t>('0:00:16.800000', '0:00:19.040000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=11.062412']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=15.88</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=20.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>isophonics_220</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:7', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['E:7', 'A', 'D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:59.540000', '0:01:09.800000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:32.920657', '0:00:39.410634')]</t>
+          <t>('0:00:18.710045', '0:00:20.463151')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=59.54</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-220#t=18.710045</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj']]</t>
+          <t>['G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['A', 'E', 'B']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:02.600000', '0:01:13.240000')]</t>
+          <t>('0:01:03.560000', '0:01:10.960000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:23.502731', '0:01:34.167952')]</t>
+          <t>('0:00:35.080113', '0:00:43.578616')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=62.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=63.56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=83.502731']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=35.080113</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>isophonics_146</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['A', 'D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:02.880000')]</t>
+          <t>('0:02:03.220000', '0:02:07.580000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+          <t>('0:00:05.915850', '0:00:20.672131')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>isophonics_282</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['Eb', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C', 'D:7', 'G']]</t>
+          <t>['D/5', 'A', 'E/4']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:29.840000', '0:00:37.200000')]</t>
+          <t>('0:00:29.719863', '0:00:35.722222')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:55.694807', '0:01:00.071768')]</t>
+          <t>('0:00:19.647000', '0:00:26.611000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=29.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=29.719863</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=55.694807']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=19.647</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>isophonics_182</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G', 'C/5', 'G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:39.724104', '0:00:47.769818')]</t>
+          <t>('0:00:59.182426', '0:01:04.464965')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:00:16.800000', '0:00:19.040000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
+          <t>('0:00:10.090000', '0:00:20.170000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=10.09</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_144</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min/A#', 'C:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:min', 'A:min']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:30.980000', '0:01:42.760000')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:28.536000', '0:00:33.834000')]</t>
+          <t>('0:00:00.279000', '0:00:16.531000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=90.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-144#t=28.536']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=0.279</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C', 'G']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:13.336043', '0:00:30.271443')]</t>
+          <t>('0:00:14.480000', '0:00:22.820000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:01.080000', '0:02:02.340000')]</t>
+          <t>('0:00:59.400000', '0:01:07.940000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=13.336043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=14.48</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=121.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=59.4</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A', 'E']]</t>
+          <t>['C/5', 'G', 'D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:13.384180', '0:00:22.457415')]</t>
+          <t>('0:00:37.239569', '0:00:40.954761')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:15.560000', '0:00:23.180000')]</t>
+          <t>('0:00:58.920000', '0:01:06.100000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=13.38418']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=37.239569</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=15.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=58.92</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min'], ['A:min/E', 'E:7', 'A:min'], ['C:maj/E', 'G:7', 'C:maj']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min/A#', 'A#:7', 'D#:min'], ['F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000'), ('0:01:23.100000', '0:01:30.020000'), ('0:00:38.900000', '0:00:44.360000')]</t>
+          <t>('0:00:07.220000', '0:00:10.760000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:05.920000'), ('0:01:56.660000', '0:02:01.420000'), ('0:00:34.380000', '0:00:38.520000')]</t>
+          <t>('0:01:39.600000', '0:01:51.620000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=7.22</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=34.38']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=99.6</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:54.400000', '0:01:01.440000'), ('0:00:58.560000', '0:01:02.900000'), ('0:01:08.820000', '0:01:17.920000')]</t>
+          <t>('0:02:14.840000', '0:02:17.480000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:20.780000', '0:00:31.600000'), ('0:01:10.740000', '0:01:13.740000'), ('0:01:12.640000', '0:01:23.380000')]</t>
+          <t>('0:00:11.820000', '0:00:17.361000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=54.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=58.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=134.84</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=20.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=70.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A:7/b7']]</t>
+          <t>['D/5', 'A', 'D/5']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'E:7']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:03.382018', '0:01:11.149092')]</t>
+          <t>('0:00:31.898979', '0:00:34.035215')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:32.241000', '0:01:38.929000')]</t>
+          <t>('0:00:00.740000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-139#t=63.382018']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=31.898979</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=92.241']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
